--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-Gp1ba.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H2">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I2">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J2">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.386787</v>
+        <v>3.624854</v>
       </c>
       <c r="N2">
-        <v>7.160361</v>
+        <v>10.874562</v>
       </c>
       <c r="O2">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="P2">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="Q2">
-        <v>1.040629584852</v>
+        <v>5.996331357857999</v>
       </c>
       <c r="R2">
-        <v>9.365666263667999</v>
+        <v>53.966982220722</v>
       </c>
       <c r="S2">
-        <v>0.03294717431723396</v>
+        <v>0.119133045494556</v>
       </c>
       <c r="T2">
-        <v>0.03294717431723396</v>
+        <v>0.119133045494556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H3">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I3">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J3">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.626475</v>
       </c>
       <c r="O3">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="P3">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="Q3">
-        <v>2.1256948647</v>
+        <v>8.065169953274999</v>
       </c>
       <c r="R3">
-        <v>19.1312537823</v>
+        <v>72.586529579475</v>
       </c>
       <c r="S3">
-        <v>0.06730121867761478</v>
+        <v>0.1602360179288127</v>
       </c>
       <c r="T3">
-        <v>0.06730121867761479</v>
+        <v>0.1602360179288127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H4">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I4">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J4">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.466781666666666</v>
+        <v>2.893069333333333</v>
       </c>
       <c r="N4">
-        <v>7.400345</v>
+        <v>8.679207999999999</v>
       </c>
       <c r="O4">
-        <v>0.2323672487351883</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="P4">
-        <v>0.2323672487351882</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="Q4">
-        <v>1.07550693954</v>
+        <v>4.785793404071999</v>
       </c>
       <c r="R4">
-        <v>9.679562455859999</v>
+        <v>43.07214063664799</v>
       </c>
       <c r="S4">
-        <v>0.03405141957544748</v>
+        <v>0.09508249449685552</v>
       </c>
       <c r="T4">
-        <v>0.03405141957544749</v>
+        <v>0.09508249449685552</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H5">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I5">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J5">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8868146666666666</v>
+        <v>1.104712</v>
       </c>
       <c r="N5">
-        <v>2.660444</v>
+        <v>3.314136</v>
       </c>
       <c r="O5">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="P5">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="Q5">
-        <v>0.386647647408</v>
+        <v>1.827444417624</v>
       </c>
       <c r="R5">
-        <v>3.479828826672</v>
+        <v>16.446999758616</v>
       </c>
       <c r="S5">
-        <v>0.01224157723741012</v>
+        <v>0.03630703607769634</v>
       </c>
       <c r="T5">
-        <v>0.01224157723741012</v>
+        <v>0.03630703607769634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.866178</v>
       </c>
       <c r="I6">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J6">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.386787</v>
+        <v>3.624854</v>
       </c>
       <c r="N6">
-        <v>7.160361</v>
+        <v>10.874562</v>
       </c>
       <c r="O6">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="P6">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="Q6">
-        <v>3.075914463361999</v>
+        <v>4.671443596003999</v>
       </c>
       <c r="R6">
-        <v>27.683230170258</v>
+        <v>42.042992364036</v>
       </c>
       <c r="S6">
-        <v>0.09738593970851027</v>
+        <v>0.09281063190723952</v>
       </c>
       <c r="T6">
-        <v>0.09738593970851028</v>
+        <v>0.09281063190723952</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.866178</v>
       </c>
       <c r="I7">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J7">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>14.626475</v>
       </c>
       <c r="O7">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="P7">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="Q7">
         <v>6.283172873616665</v>
@@ -883,10 +883,10 @@
         <v>56.54855586254999</v>
       </c>
       <c r="S7">
-        <v>0.1989303350065776</v>
+        <v>0.1248319139037914</v>
       </c>
       <c r="T7">
-        <v>0.1989303350065776</v>
+        <v>0.1248319139037914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.866178</v>
       </c>
       <c r="I8">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J8">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.466781666666666</v>
+        <v>2.893069333333333</v>
       </c>
       <c r="N8">
-        <v>7.400345</v>
+        <v>8.679207999999999</v>
       </c>
       <c r="O8">
-        <v>0.2323672487351883</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="P8">
-        <v>0.2323672487351882</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="Q8">
-        <v>3.179005670156666</v>
+        <v>3.728373669669332</v>
       </c>
       <c r="R8">
-        <v>28.61105103141</v>
+        <v>33.55536302702399</v>
       </c>
       <c r="S8">
-        <v>0.100649890695759</v>
+        <v>0.07407404352785597</v>
       </c>
       <c r="T8">
-        <v>0.100649890695759</v>
+        <v>0.07407404352785597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.866178</v>
       </c>
       <c r="I9">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J9">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8868146666666666</v>
+        <v>1.104712</v>
       </c>
       <c r="N9">
-        <v>2.660444</v>
+        <v>3.314136</v>
       </c>
       <c r="O9">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="P9">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="Q9">
-        <v>1.142861118114666</v>
+        <v>1.423671076912</v>
       </c>
       <c r="R9">
-        <v>10.285750063032</v>
+        <v>12.813039692208</v>
       </c>
       <c r="S9">
-        <v>0.03618390734515591</v>
+        <v>0.02828500645695258</v>
       </c>
       <c r="T9">
-        <v>0.03618390734515591</v>
+        <v>0.02828500645695258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H10">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I10">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J10">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.386787</v>
+        <v>3.624854</v>
       </c>
       <c r="N10">
-        <v>7.160361</v>
+        <v>10.874562</v>
       </c>
       <c r="O10">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="P10">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="Q10">
-        <v>2.501597023869667</v>
+        <v>3.211255742030666</v>
       </c>
       <c r="R10">
-        <v>22.514373214827</v>
+        <v>28.901301678276</v>
       </c>
       <c r="S10">
-        <v>0.07920258506645239</v>
+        <v>0.06380012270480218</v>
       </c>
       <c r="T10">
-        <v>0.07920258506645242</v>
+        <v>0.06380012270480218</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H11">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I11">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J11">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>14.626475</v>
       </c>
       <c r="O11">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="P11">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="Q11">
-        <v>5.110014191980555</v>
+        <v>4.319194817172221</v>
       </c>
       <c r="R11">
-        <v>45.990127727825</v>
+        <v>38.87275335455</v>
       </c>
       <c r="S11">
-        <v>0.1617871822956747</v>
+        <v>0.0858122745301118</v>
       </c>
       <c r="T11">
-        <v>0.1617871822956747</v>
+        <v>0.0858122745301118</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H12">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I12">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J12">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.466781666666666</v>
+        <v>2.893069333333333</v>
       </c>
       <c r="N12">
-        <v>7.400345</v>
+        <v>8.679207999999999</v>
       </c>
       <c r="O12">
-        <v>0.2323672487351883</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="P12">
-        <v>0.2323672487351882</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="Q12">
-        <v>2.585439620657222</v>
+        <v>2.56296819368711</v>
       </c>
       <c r="R12">
-        <v>23.268956585915</v>
+        <v>23.066713743184</v>
       </c>
       <c r="S12">
-        <v>0.08185710949260738</v>
+        <v>0.05092016904961329</v>
       </c>
       <c r="T12">
-        <v>0.0818571094926074</v>
+        <v>0.05092016904961329</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H13">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I13">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J13">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8868146666666666</v>
+        <v>1.104712</v>
       </c>
       <c r="N13">
-        <v>2.660444</v>
+        <v>3.314136</v>
       </c>
       <c r="O13">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="P13">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="Q13">
-        <v>0.9294725213675554</v>
+        <v>0.9786636243253332</v>
       </c>
       <c r="R13">
-        <v>8.365252692307999</v>
+        <v>8.807972618928</v>
       </c>
       <c r="S13">
-        <v>0.029427851783525</v>
+        <v>0.01944375170792187</v>
       </c>
       <c r="T13">
-        <v>0.02942785178352501</v>
+        <v>0.01944375170792187</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H14">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I14">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J14">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.386787</v>
+        <v>3.624854</v>
       </c>
       <c r="N14">
-        <v>7.160361</v>
+        <v>10.874562</v>
       </c>
       <c r="O14">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="P14">
-        <v>0.2248318673684458</v>
+        <v>0.2900317783616697</v>
       </c>
       <c r="Q14">
-        <v>0.483126264179</v>
+        <v>0.7191577424686665</v>
       </c>
       <c r="R14">
-        <v>4.348136377611</v>
+        <v>6.472419682217999</v>
       </c>
       <c r="S14">
-        <v>0.0152961682762492</v>
+        <v>0.01428797825507206</v>
       </c>
       <c r="T14">
-        <v>0.0152961682762492</v>
+        <v>0.01428797825507206</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H15">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I15">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J15">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>14.626475</v>
       </c>
       <c r="O15">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="P15">
-        <v>0.4592642308492391</v>
+        <v>0.3900977855855255</v>
       </c>
       <c r="Q15">
-        <v>0.9868823966916664</v>
+        <v>0.9672796698638887</v>
       </c>
       <c r="R15">
-        <v>8.881941570224999</v>
+        <v>8.705517028774999</v>
       </c>
       <c r="S15">
-        <v>0.03124549486937208</v>
+        <v>0.01921757922280963</v>
       </c>
       <c r="T15">
-        <v>0.03124549486937209</v>
+        <v>0.01921757922280963</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H16">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I16">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J16">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.466781666666666</v>
+        <v>2.893069333333333</v>
       </c>
       <c r="N16">
-        <v>7.400345</v>
+        <v>8.679207999999999</v>
       </c>
       <c r="O16">
-        <v>0.2323672487351883</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="P16">
-        <v>0.2323672487351882</v>
+        <v>0.2314802316645793</v>
       </c>
       <c r="Q16">
-        <v>0.4993185446216666</v>
+        <v>0.5739743478124444</v>
       </c>
       <c r="R16">
-        <v>4.493866901595</v>
+        <v>5.165769130311999</v>
       </c>
       <c r="S16">
-        <v>0.0158088289713744</v>
+        <v>0.01140352459025453</v>
       </c>
       <c r="T16">
-        <v>0.0158088289713744</v>
+        <v>0.01140352459025453</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H17">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I17">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J17">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8868146666666666</v>
+        <v>1.104712</v>
       </c>
       <c r="N17">
-        <v>2.660444</v>
+        <v>3.314136</v>
       </c>
       <c r="O17">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="P17">
-        <v>0.08353665304712675</v>
+        <v>0.08839020438822554</v>
       </c>
       <c r="Q17">
-        <v>0.1795063643826666</v>
+        <v>0.2191708101893333</v>
       </c>
       <c r="R17">
-        <v>1.615557279444</v>
+        <v>1.972537291704</v>
       </c>
       <c r="S17">
-        <v>0.005683316681035708</v>
+        <v>0.00435441014565474</v>
       </c>
       <c r="T17">
-        <v>0.005683316681035709</v>
+        <v>0.00435441014565474</v>
       </c>
     </row>
   </sheetData>
